--- a/WorkRecord.xlsx
+++ b/WorkRecord.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26240" windowHeight="13160" activeTab="1"/>
+    <workbookView windowWidth="26240" windowHeight="13160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="June-July-2014" sheetId="1" r:id="rId1"/>
     <sheet name="Aug-2014" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sep-2014" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,9 @@
   <si>
     <t>增加 CContactCardManager 的方法。修改 300 按照 Ken 要求。commit 300 app bin. commit pcsc reader. 编译为安装包。Kiwi 问题。</t>
   </si>
+  <si>
+    <t>Commit FileTransManager library.</t>
+  </si>
 </sst>
 </file>
 
@@ -145,9 +148,9 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="m\-d\-yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -176,12 +179,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,17 +212,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,10 +232,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -608,388 +620,388 @@
     <col min="4" max="4" width="24.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>41800</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="38" customHeight="1" spans="1:3">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>41801</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="48" customHeight="1" spans="1:3">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>41802</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:3">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>41803</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>41804</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>41805</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="1:3">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>41806</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="58" customHeight="1" spans="1:15">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>41807</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" spans="3:15">
-      <c r="C10" s="9"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" ht="80" customHeight="1" spans="1:3">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>41808</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>41809</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:3">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>41810</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10">
+      <c r="A14" s="11">
         <v>41811</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10">
+      <c r="A15" s="11">
         <v>41812</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" ht="66" customHeight="1" spans="1:3">
-      <c r="A16" s="10">
+      <c r="A16" s="11">
         <v>41813</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="10">
+      <c r="A17" s="11">
         <v>41814</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="10">
+      <c r="A18" s="11">
         <v>41815</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" ht="75" customHeight="1" spans="1:5">
-      <c r="A19" s="10">
+      <c r="A19" s="11">
         <v>41816</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" ht="66" customHeight="1" spans="1:3">
-      <c r="A20" s="10">
+      <c r="A20" s="11">
         <v>41817</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10">
+      <c r="A21" s="11">
         <v>41818</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="10">
+      <c r="A22" s="11">
         <v>41819</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10">
+      <c r="A23" s="11">
         <v>41820</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10">
+      <c r="A24" s="11">
         <v>41821</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10">
+      <c r="A25" s="11">
         <v>41822</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10">
+      <c r="A26" s="11">
         <v>41823</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10">
+      <c r="A27" s="11">
         <v>41824</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10">
+      <c r="A28" s="11">
         <v>41825</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10">
+      <c r="A29" s="11">
         <v>41826</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10">
+      <c r="A30" s="11">
         <v>41827</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10">
+      <c r="A31" s="11">
         <v>41828</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="10">
+      <c r="A32" s="11">
         <v>41829</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="10">
+      <c r="A33" s="11">
         <v>41830</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="10">
+      <c r="A34" s="11">
         <v>41831</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="10">
+      <c r="A35" s="11">
         <v>41832</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="10">
+      <c r="A36" s="11">
         <v>41833</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="10">
+      <c r="A37" s="11">
         <v>41834</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="10">
+      <c r="A38" s="11">
         <v>41835</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="10">
+      <c r="A39" s="11">
         <v>41836</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1010,8 +1022,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1023,19 +1035,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1043,13 +1055,13 @@
       <c r="A2" s="4">
         <v>41856</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="1"/>
@@ -1058,13 +1070,13 @@
       <c r="A3" s="4">
         <v>41857</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="1"/>
@@ -1073,7 +1085,7 @@
       <c r="A4" s="4">
         <v>41858</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1081,7 +1093,7 @@
       <c r="A5" s="4">
         <v>41859</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1089,7 +1101,7 @@
       <c r="A6" s="4">
         <v>41860</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1097,7 +1109,7 @@
       <c r="A7" s="4">
         <v>41861</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1105,7 +1117,7 @@
       <c r="A8" s="4">
         <v>41862</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1122,7 +1134,7 @@
       <c r="A9" s="4">
         <v>41863</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1130,7 +1142,7 @@
       <c r="A10" s="4">
         <v>41864</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1138,7 +1150,7 @@
       <c r="A11" s="4">
         <v>41865</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1146,7 +1158,7 @@
       <c r="A12" s="4">
         <v>41866</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1154,7 +1166,7 @@
       <c r="A13" s="4">
         <v>41867</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1162,7 +1174,7 @@
       <c r="A14" s="4">
         <v>41868</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1170,10 +1182,10 @@
       <c r="A15" s="4">
         <v>41869</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1181,7 +1193,7 @@
       <c r="A16" s="4">
         <v>41870</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1189,7 +1201,7 @@
       <c r="A17" s="4">
         <v>41871</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1197,7 +1209,7 @@
       <c r="A18" s="4">
         <v>41872</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1205,7 +1217,7 @@
       <c r="A19" s="4">
         <v>41873</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1213,7 +1225,7 @@
       <c r="A20" s="4">
         <v>41874</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1221,7 +1233,7 @@
       <c r="A21" s="4">
         <v>41875</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1229,7 +1241,7 @@
       <c r="A22" s="4">
         <v>41876</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1237,7 +1249,7 @@
       <c r="A23" s="4">
         <v>41877</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1245,7 +1257,7 @@
       <c r="A24" s="4">
         <v>41878</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1253,7 +1265,7 @@
       <c r="A25" s="4">
         <v>41879</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1261,7 +1273,7 @@
       <c r="A26" s="4">
         <v>41880</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1269,7 +1281,7 @@
       <c r="A27" s="4">
         <v>41881</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1277,7 +1289,7 @@
       <c r="A28" s="4">
         <v>41882</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1291,14 +1303,269 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="8.88888888888889" style="1"/>
+    <col min="3" max="3" width="52.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="24.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="18" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="18" spans="1:5">
+      <c r="A2" s="4">
+        <v>41892</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" customFormat="1" ht="18" spans="1:5">
+      <c r="A3" s="4">
+        <v>41893</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" customFormat="1" ht="18" spans="1:3">
+      <c r="A4" s="4">
+        <v>41894</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" customFormat="1" ht="18" spans="1:3">
+      <c r="A5" s="4">
+        <v>41895</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" ht="18" spans="1:3">
+      <c r="A6" s="4">
+        <v>41896</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" customFormat="1" ht="18" spans="1:3">
+      <c r="A7" s="4">
+        <v>41897</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" ht="18" spans="1:5">
+      <c r="A8" s="4">
+        <v>41898</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" ht="18" spans="1:3">
+      <c r="A9" s="4">
+        <v>41899</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" ht="18" spans="1:3">
+      <c r="A10" s="4">
+        <v>41900</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" customFormat="1" ht="18" spans="1:3">
+      <c r="A11" s="4">
+        <v>41901</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" customFormat="1" ht="18" spans="1:3">
+      <c r="A12" s="4">
+        <v>41902</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" customFormat="1" ht="18" spans="1:3">
+      <c r="A13" s="4">
+        <v>41903</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" customFormat="1" ht="18" spans="1:3">
+      <c r="A14" s="4">
+        <v>41904</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" customFormat="1" ht="18" spans="1:3">
+      <c r="A15" s="4">
+        <v>41905</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" customFormat="1" ht="18" spans="1:3">
+      <c r="A16" s="4">
+        <v>41906</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" customFormat="1" ht="18" spans="1:3">
+      <c r="A17" s="4">
+        <v>41907</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" customFormat="1" ht="18" spans="1:3">
+      <c r="A18" s="4">
+        <v>41908</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" customFormat="1" ht="18" spans="1:3">
+      <c r="A19" s="4">
+        <v>41909</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" customFormat="1" ht="18" spans="1:3">
+      <c r="A20" s="4">
+        <v>41910</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" customFormat="1" ht="18" spans="1:3">
+      <c r="A21" s="4">
+        <v>41911</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" customFormat="1" ht="18" spans="1:3">
+      <c r="A22" s="4">
+        <v>41912</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" customFormat="1" ht="18" spans="1:3">
+      <c r="A23" s="4">
+        <v>41913</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" customFormat="1" ht="18" spans="1:3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" customFormat="1" ht="18" spans="1:3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" customFormat="1" ht="18" spans="1:3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" customFormat="1" ht="18" spans="1:3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" customFormat="1" ht="18" spans="1:3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/WorkRecord.xlsx
+++ b/WorkRecord.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>Date</t>
   </si>
@@ -140,17 +140,29 @@
   <si>
     <t>Commit FileTransManager library.</t>
   </si>
+  <si>
+    <t>Git branch, config,rebase. prompt.update.</t>
+  </si>
+  <si>
+    <t>测试切换语言的重启，中导致变砖头。切换 driver console 模式重启都OK。ACR100 update 之后会自动启动 APP 进行数据采集，提示等待用户移出。Commit the last changes.</t>
+  </si>
+  <si>
+    <t>Debug the error machine.</t>
+  </si>
+  <si>
+    <t>Commit and test new app.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="m\-d\-yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="m\-d\-yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -212,13 +224,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -235,7 +247,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -256,7 +268,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1306,7 +1318,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1317,7 +1329,7 @@
     <col min="5" max="5" width="24.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="18" spans="1:5">
+    <row r="1" ht="18" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="18" spans="1:5">
+    <row r="2" ht="18" spans="1:5">
       <c r="A2" s="4">
         <v>41892</v>
       </c>
@@ -1347,7 +1359,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" customFormat="1" ht="18" spans="1:5">
+    <row r="3" ht="18" spans="1:5">
       <c r="A3" s="4">
         <v>41893</v>
       </c>
@@ -1358,108 +1370,107 @@
       <c r="D3" s="7"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" customFormat="1" ht="18" spans="1:3">
+    <row r="4" ht="18" spans="1:2">
       <c r="A4" s="4">
         <v>41894</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="5" ht="18" spans="1:2">
       <c r="A5" s="4">
         <v>41895</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="6" ht="18" spans="1:2">
       <c r="A6" s="4">
         <v>41896</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="7" ht="18" spans="1:3">
       <c r="A7" s="4">
         <v>41897</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" ht="18" spans="1:5">
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" ht="49.5" spans="1:5">
       <c r="A8" s="4">
         <v>41898</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" customFormat="1" ht="18" spans="1:3">
+      <c r="C8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" ht="18" spans="1:4">
       <c r="A9" s="4">
         <v>41899</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" customFormat="1" ht="18" spans="1:3">
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" ht="18" spans="1:2">
       <c r="A10" s="4">
         <v>41900</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="11" ht="18" spans="1:2">
       <c r="A11" s="4">
         <v>41901</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="12" ht="18" spans="1:2">
       <c r="A12" s="4">
         <v>41902</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="13" ht="18" spans="1:2">
       <c r="A13" s="4">
         <v>41903</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="14" ht="18" spans="1:2">
       <c r="A14" s="4">
         <v>41904</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="15" ht="18" spans="1:3">
       <c r="A15" s="4">
         <v>41905</v>
       </c>
@@ -1468,102 +1479,89 @@
       </c>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" customFormat="1" ht="18" spans="1:3">
+    <row r="16" ht="18" spans="1:2">
       <c r="A16" s="4">
         <v>41906</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="17" ht="18" spans="1:2">
       <c r="A17" s="4">
         <v>41907</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="18" ht="18" spans="1:2">
       <c r="A18" s="4">
         <v>41908</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="19" ht="18" spans="1:2">
       <c r="A19" s="4">
         <v>41909</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="20" ht="18" spans="1:2">
       <c r="A20" s="4">
         <v>41910</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="21" ht="18" spans="1:2">
       <c r="A21" s="4">
         <v>41911</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="22" ht="18" spans="1:2">
       <c r="A22" s="4">
         <v>41912</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="23" ht="18" spans="1:2">
       <c r="A23" s="4">
         <v>41913</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="24" ht="18" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="25" ht="18" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="26" ht="18" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="27" ht="18" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" customFormat="1" ht="18" spans="1:3">
+    </row>
+    <row r="28" ht="18" spans="1:2">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>

--- a/WorkRecord.xlsx
+++ b/WorkRecord.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26240" windowHeight="13160" activeTab="2"/>
+    <workbookView windowWidth="22400" windowHeight="13160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="June-July-2014" sheetId="1" r:id="rId1"/>
     <sheet name="Aug-2014" sheetId="2" r:id="rId2"/>
     <sheet name="Sep-2014" sheetId="3" r:id="rId3"/>
+    <sheet name="Oct-2014" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>Date</t>
   </si>
@@ -152,17 +153,44 @@
   <si>
     <t>Commit and test new app.</t>
   </si>
+  <si>
+    <t>modify the C++ test app to modulize.  Debug for "Invalid tcert" of loyalty transaction.</t>
+  </si>
+  <si>
+    <t>array parameter of function will be convert to pointer to the 1st element.</t>
+  </si>
+  <si>
+    <t>Build a script to analysis transaction file.</t>
+  </si>
+  <si>
+    <t>Fix the bug of "Invalid tcert" of loyalty.</t>
+  </si>
+  <si>
+    <t>Locate the issue of 0x84 invalid tcert.</t>
+  </si>
+  <si>
+    <t>Fix the bug that loyalty transaction invalid tcert.</t>
+  </si>
+  <si>
+    <t>Test max penlty debit transaciton invalid tcert. Release new app.</t>
+  </si>
+  <si>
+    <t>the card operation flow. Mifare</t>
+  </si>
+  <si>
+    <t>Build topupsync app. Build new app. 300APP 1214 lock psam.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="m\-d\-yyyy"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="m\-d\-yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -224,13 +252,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -247,7 +275,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -268,7 +296,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1317,8 +1345,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1568,4 +1596,260 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9.44444444444444" style="1"/>
+    <col min="2" max="2" width="8.88888888888889" style="1"/>
+    <col min="3" max="3" width="52.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="24.4444444444444" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="49.5" spans="1:5">
+      <c r="A2" s="4">
+        <v>41927</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="36" spans="1:5">
+      <c r="A3" s="4">
+        <v>41928</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="18" spans="1:5">
+      <c r="A4" s="4">
+        <v>41929</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="18" spans="1:2">
+      <c r="A5" s="4">
+        <v>41930</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="1:2">
+      <c r="A6" s="4">
+        <v>41931</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:3">
+      <c r="A7" s="4">
+        <v>41932</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:3">
+      <c r="A8" s="4">
+        <v>41933</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" ht="18" spans="1:3">
+      <c r="A9" s="4">
+        <v>41934</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="18" spans="1:5">
+      <c r="A10" s="4">
+        <v>41935</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" ht="18" spans="1:2">
+      <c r="A11" s="4">
+        <v>41936</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="18" spans="1:2">
+      <c r="A12" s="4">
+        <v>41937</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="18" spans="1:2">
+      <c r="A13" s="4">
+        <v>41938</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="1:3">
+      <c r="A14" s="4">
+        <v>41939</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" ht="18" spans="1:2">
+      <c r="A15" s="4">
+        <v>41940</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:3">
+      <c r="A16" s="4">
+        <v>41941</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" ht="18" spans="1:2">
+      <c r="A17" s="4">
+        <v>41942</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" ht="18" spans="1:2">
+      <c r="A18" s="4">
+        <v>41943</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="18" spans="1:2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" ht="18" spans="1:2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" ht="18" spans="1:2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" ht="18" spans="1:2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" ht="18" spans="1:2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" ht="18" spans="1:2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" ht="18" spans="1:2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" ht="18" spans="1:2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" ht="18" spans="1:2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" ht="18" spans="1:2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" ht="18" spans="1:2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/WorkRecord.xlsx
+++ b/WorkRecord.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22400" windowHeight="13160" activeTab="3"/>
+    <workbookView windowWidth="27220" windowHeight="13160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="June-July-2014" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>Date</t>
   </si>
@@ -180,17 +180,20 @@
   <si>
     <t>Build topupsync app. Build new app. 300APP 1214 lock psam.</t>
   </si>
+  <si>
+    <t>release new app. change color.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m\-d\-yyyy"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="m\-d\-yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -252,13 +255,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1604,7 +1607,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1831,9 +1834,12 @@
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" ht="18" spans="1:2">
+    <row r="26" ht="18" spans="1:3">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
+      <c r="C26" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="27" ht="18" spans="1:2">
       <c r="A27" s="4"/>

--- a/WorkRecord.xlsx
+++ b/WorkRecord.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27220" windowHeight="13160" activeTab="3"/>
+    <workbookView windowWidth="28700" windowHeight="13160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="June-July-2014" sheetId="1" r:id="rId1"/>
     <sheet name="Aug-2014" sheetId="2" r:id="rId2"/>
     <sheet name="Sep-2014" sheetId="3" r:id="rId3"/>
     <sheet name="Oct-2014" sheetId="4" r:id="rId4"/>
+    <sheet name="Nov-2014" sheetId="5" r:id="rId5"/>
+    <sheet name="Dec-2014" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>Date</t>
   </si>
@@ -183,17 +185,38 @@
   <si>
     <t>release new app. change color.</t>
   </si>
+  <si>
+    <t>增加 cashier card insuff balance 失败。Debug can't boot kernel .</t>
+  </si>
+  <si>
+    <t>Build netchange for Paris. Collect bookmarks. GSoap timeout.</t>
+  </si>
+  <si>
+    <t>Mailbox modification.</t>
+  </si>
+  <si>
+    <t>Making cards for replace old test cards.</t>
+  </si>
+  <si>
+    <t>BV reboot again by again after exchange the old and new LSAM LSAC cards. Making new test cards , then test them successfully.</t>
+  </si>
+  <si>
+    <t>debug change cards. system reboot. Recover the BVS destroy BV,.</t>
+  </si>
+  <si>
+    <t>book train tickets. Jenny's BV can't upload txn to HKO.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m\-d\-yyyy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m\-d\-yyyy"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -255,17 +278,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,7 +301,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -286,6 +309,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -299,7 +325,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -663,388 +689,388 @@
     <col min="4" max="4" width="24.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:5">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11">
+      <c r="A2" s="12">
         <v>41800</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="38" customHeight="1" spans="1:3">
-      <c r="A3" s="11">
+      <c r="A3" s="12">
         <v>41801</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="48" customHeight="1" spans="1:3">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>41802</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:3">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>41803</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>41804</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>41805</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="1:3">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <v>41806</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="58" customHeight="1" spans="1:15">
-      <c r="A9" s="11">
+      <c r="A9" s="12">
         <v>41807</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" spans="3:15">
-      <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" ht="80" customHeight="1" spans="1:3">
-      <c r="A11" s="11">
+      <c r="A11" s="12">
         <v>41808</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="11">
+      <c r="A12" s="12">
         <v>41809</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:3">
-      <c r="A13" s="11">
+      <c r="A13" s="12">
         <v>41810</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11">
+      <c r="A14" s="12">
         <v>41811</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11">
+      <c r="A15" s="12">
         <v>41812</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" ht="66" customHeight="1" spans="1:3">
-      <c r="A16" s="11">
+      <c r="A16" s="12">
         <v>41813</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11">
+      <c r="A17" s="12">
         <v>41814</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="11">
+      <c r="A18" s="12">
         <v>41815</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" ht="75" customHeight="1" spans="1:5">
-      <c r="A19" s="11">
+      <c r="A19" s="12">
         <v>41816</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" ht="66" customHeight="1" spans="1:3">
-      <c r="A20" s="11">
+      <c r="A20" s="12">
         <v>41817</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="11">
+      <c r="A21" s="12">
         <v>41818</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="11">
+      <c r="A22" s="12">
         <v>41819</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="11">
+      <c r="A23" s="12">
         <v>41820</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="11">
+      <c r="A24" s="12">
         <v>41821</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="11">
+      <c r="A25" s="12">
         <v>41822</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="11">
+      <c r="A26" s="12">
         <v>41823</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="11">
+      <c r="A27" s="12">
         <v>41824</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="11">
+      <c r="A28" s="12">
         <v>41825</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="11">
+      <c r="A29" s="12">
         <v>41826</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="11">
+      <c r="A30" s="12">
         <v>41827</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="11">
+      <c r="A31" s="12">
         <v>41828</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="11">
+      <c r="A32" s="12">
         <v>41829</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="11">
+      <c r="A33" s="12">
         <v>41830</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="11">
+      <c r="A34" s="12">
         <v>41831</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="11">
+      <c r="A35" s="12">
         <v>41832</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="11">
+      <c r="A36" s="12">
         <v>41833</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="11">
+      <c r="A37" s="12">
         <v>41834</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="11">
+      <c r="A38" s="12">
         <v>41835</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="11">
+      <c r="A39" s="12">
         <v>41836</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1119,7 +1145,7 @@
       <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="1"/>
@@ -1228,7 +1254,7 @@
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1398,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" ht="18" spans="1:2">
@@ -1443,7 +1469,7 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1508,7 +1534,7 @@
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" ht="18" spans="1:2">
       <c r="A16" s="4">
@@ -1606,8 +1632,8 @@
   <sheetPr/>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1674,7 +1700,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="18" spans="1:2">
@@ -1788,7 +1814,7 @@
       <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" ht="18" spans="1:2">
       <c r="A17" s="4">
@@ -1858,4 +1884,545 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="1:1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="11.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88888888888889" style="1"/>
+    <col min="3" max="3" width="52.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="24.4444444444444" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="18" spans="1:5">
+      <c r="A2" s="4">
+        <v>41955</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" ht="18" spans="1:5">
+      <c r="A3" s="4">
+        <v>41956</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="18" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="18" spans="1:3">
+      <c r="A5" s="4">
+        <v>41960</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="1:2">
+      <c r="A6" s="4">
+        <v>41961</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:2">
+      <c r="A7" s="4">
+        <v>41962</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:2">
+      <c r="A8" s="4">
+        <v>41963</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="18" spans="1:3">
+      <c r="A9" s="4">
+        <v>41964</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" customFormat="1" ht="18" spans="1:5">
+      <c r="A10" s="4">
+        <v>41965</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" ht="18" spans="1:2">
+      <c r="A11" s="4">
+        <v>41966</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="18" spans="1:2">
+      <c r="A12" s="4">
+        <v>41967</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="18" spans="1:3">
+      <c r="A13" s="4">
+        <v>41968</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="1:3">
+      <c r="A14" s="4">
+        <v>41969</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" ht="18" spans="1:2">
+      <c r="A15" s="4">
+        <v>41970</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="33" spans="1:3">
+      <c r="A16" s="4">
+        <v>41971</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" ht="33" spans="1:3">
+      <c r="A17" s="4">
+        <v>41972</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" ht="18" spans="1:2">
+      <c r="A18" s="4">
+        <v>41973</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" ht="18" spans="1:2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" ht="18" spans="1:2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" ht="18" spans="1:2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" ht="18" spans="1:2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" ht="18" spans="1:2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" ht="18" spans="1:2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" ht="18" spans="1:2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" customFormat="1" ht="18" spans="1:5">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" ht="18" spans="1:2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" ht="18" spans="1:2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" ht="18" spans="1:2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="11.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88888888888889" style="1"/>
+    <col min="3" max="3" width="52.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="24.4444444444444" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="18" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="18" spans="1:5">
+      <c r="A2" s="4">
+        <v>41991</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" customFormat="1" ht="18" spans="1:5">
+      <c r="A3" s="4">
+        <v>41992</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="1" ht="18" spans="1:5">
+      <c r="A4" s="4">
+        <v>41993</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" customFormat="1" ht="18" spans="1:5">
+      <c r="A5" s="4">
+        <v>41994</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" ht="18" spans="1:5">
+      <c r="A6" s="4">
+        <v>41995</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="1" ht="18" spans="1:5">
+      <c r="A7" s="4">
+        <v>41996</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" ht="18" spans="1:5">
+      <c r="A8" s="4">
+        <v>41997</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" ht="18" spans="1:5">
+      <c r="A9" s="4">
+        <v>41998</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" ht="18" spans="1:5">
+      <c r="A10" s="4">
+        <v>41999</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" customFormat="1" ht="18" spans="1:5">
+      <c r="A11" s="4">
+        <v>42000</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" customFormat="1" ht="18" spans="1:5">
+      <c r="A12" s="4">
+        <v>42001</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" customFormat="1" ht="18" spans="1:5">
+      <c r="A13" s="4">
+        <v>42002</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" customFormat="1" ht="18" spans="1:5">
+      <c r="A14" s="4">
+        <v>42003</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" customFormat="1" ht="18" spans="1:5">
+      <c r="A15" s="4">
+        <v>42004</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" customFormat="1" ht="18" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="9"/>
+      <c r="D16"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" customFormat="1" ht="18" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="2"/>
+      <c r="D17"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" customFormat="1" ht="18" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" customFormat="1" ht="18" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="2"/>
+      <c r="D19"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" customFormat="1" ht="18" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="2"/>
+      <c r="D20"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" customFormat="1" ht="18" spans="1:5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="2"/>
+      <c r="D21"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" customFormat="1" ht="18" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="2"/>
+      <c r="D22"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" customFormat="1" ht="18" spans="1:5">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="2"/>
+      <c r="D23"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" customFormat="1" ht="18" spans="1:5">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="2"/>
+      <c r="D24"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" customFormat="1" ht="18" spans="1:5">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" customFormat="1" ht="18" spans="1:5">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" customFormat="1" ht="18" spans="1:5">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" customFormat="1" ht="18" spans="1:5">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="2"/>
+      <c r="D28"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" customFormat="1" ht="18" spans="1:5">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29"/>
+      <c r="E29" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>